--- a/20221207/20221207_전자공시결과(SMJ).xlsx
+++ b/20221207/20221207_전자공시결과(SMJ).xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5151ba23ed5498a/문서/UiPath/DART전자공시/20221207/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{DAE75E1A-0ECB-4344-ADFF-B4C11E4D4823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0E5FD4-40CF-42A7-B422-C89AD2D22FF8}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{DAE75E1A-0ECB-4344-ADFF-B4C11E4D4823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB82275-34C1-4970-862D-DFF73736B92F}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="768" windowWidth="17280" windowHeight="10056" activeTab="1" xr2:uid="{52CB4AC5-B0A5-42C7-AA85-5BA8F5B4CCEE}"/>
+    <workbookView xWindow="31035" yWindow="5175" windowWidth="7200" windowHeight="6540" firstSheet="2" activeTab="2" xr2:uid="{52CB4AC5-B0A5-42C7-AA85-5BA8F5B4CCEE}"/>
   </bookViews>
   <sheets>
     <sheet name="회사명" sheetId="3" r:id="rId1"/>
-    <sheet name="솔트룩스" sheetId="7" r:id="rId2"/>
-    <sheet name="아모센스" sheetId="6" r:id="rId3"/>
-    <sheet name="윈하이텍" sheetId="5" r:id="rId4"/>
-    <sheet name="모두투어" sheetId="4" r:id="rId5"/>
+    <sheet name="20221207000315아이티엠반도체" sheetId="7" r:id="rId2"/>
+    <sheet name="아이티엠반도체" sheetId="5" r:id="rId3"/>
+    <sheet name="탑선" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="108">
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,55 +105,288 @@
     <t>비고</t>
   </si>
   <si>
+    <t>에스케이에코플랜트(주)</t>
+  </si>
+  <si>
+    <t>본인</t>
+  </si>
+  <si>
+    <t>101-81-34928</t>
+  </si>
+  <si>
+    <t>의결권있는 주식</t>
+  </si>
+  <si>
+    <t>윤정택 외 2인</t>
+  </si>
+  <si>
+    <t>장외매매계약</t>
+  </si>
+  <si>
+    <t>2022년 11월 30일</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>주1)</t>
+  </si>
+  <si>
     <t>합계(주식등의 수)</t>
   </si>
   <si>
     <t>합계(비율)</t>
   </si>
   <si>
-    <t>모두투어</t>
-  </si>
-  <si>
-    <t>우종웅</t>
+    <t>탑선</t>
+  </si>
+  <si>
+    <t>에스케이에코플랜트</t>
   </si>
   <si>
     <t>2022.12.07</t>
   </si>
   <si>
-    <t>+1,850.00 (12.05%)오늘지난 5일지난 1개월지난 6개월연간 누계지난해지난 5년전체 기간</t>
-  </si>
-  <si>
-    <t>윈하이텍</t>
-  </si>
-  <si>
-    <t>송규정</t>
-  </si>
-  <si>
-    <t>-60.00 (-1.58%)
+    <t>x</t>
+  </si>
+  <si>
+    <t>나혁휘</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>특수관계인</t>
+  </si>
+  <si>
+    <t>아이티엠반도체</t>
+  </si>
+  <si>
+    <t>연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고자와의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일 또는 사업자등록번호 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식등의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식등의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 상대방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약체결 (변경)일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울전자통신㈜</t>
+  </si>
+  <si>
+    <t>130-81-10787</t>
+  </si>
+  <si>
+    <t>한국증권금융</t>
+  </si>
+  <si>
+    <t>담보계약설정</t>
+  </si>
+  <si>
+    <t>2022년 08월 10일</t>
+  </si>
+  <si>
+    <t>2020.08.10 ~ 2023.08.10</t>
+  </si>
+  <si>
+    <t>대출담보</t>
+  </si>
+  <si>
+    <t>2022.05.26 ~ 2023.05.26</t>
+  </si>
+  <si>
+    <t>교보증권</t>
+  </si>
+  <si>
+    <t>2022년 11월 21일</t>
+  </si>
+  <si>
+    <t>2022.11.21 ~ 2023.02.20</t>
+  </si>
+  <si>
+    <t>2022년 09월 13일</t>
+  </si>
+  <si>
+    <t>2022.09.13 ~ 2023.03.13</t>
+  </si>
+  <si>
+    <t>한양증권 외</t>
+  </si>
+  <si>
+    <t>교환사채
+(EB)</t>
+  </si>
+  <si>
+    <t>2022년 04월 18일</t>
+  </si>
+  <si>
+    <t>2022.04.20 ~ 2027.04.20</t>
+  </si>
+  <si>
+    <t>교환사채의 주요내용은 서울전자통신(주)의 2022년 4월 18일자 주요사항보고서 참조</t>
+  </si>
+  <si>
+    <t>IBK투자증권</t>
+  </si>
+  <si>
+    <t>2022년 11월 01일</t>
+  </si>
+  <si>
+    <t>2022.11.01 ~ 2023.01.30</t>
+  </si>
+  <si>
+    <t>하이투자증권</t>
+  </si>
+  <si>
+    <t>KB증권</t>
+  </si>
+  <si>
+    <t>2022년 12월 06일</t>
+  </si>
+  <si>
+    <t>2022.12.06 ~ 2023.06.05</t>
+  </si>
+  <si>
+    <t>김원우</t>
+  </si>
+  <si>
+    <t>2022년 09월 28일</t>
+  </si>
+  <si>
+    <t>2020.05.26 ~ 2023.03.14</t>
+  </si>
+  <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
+    <t>2022년 12월 01일</t>
+  </si>
+  <si>
+    <t>2020.05.26 ~ 2023.02.28</t>
+  </si>
+  <si>
+    <t>에스투비네트워크㈜</t>
+  </si>
+  <si>
+    <t>514-81-52082</t>
+  </si>
+  <si>
+    <t>2022년 05월 26일</t>
+  </si>
+  <si>
+    <t>2020.05.11 ~ 2023.05.08</t>
+  </si>
+  <si>
+    <t>2020.10.13 ~ 2023.05.08</t>
+  </si>
+  <si>
+    <t>2021.05.21 ~ 2023.05.08</t>
+  </si>
+  <si>
+    <t>2022.01.18 ~ 2023.05.08</t>
+  </si>
+  <si>
+    <t>정대규</t>
+  </si>
+  <si>
+    <t>2022년 11월 02일</t>
+  </si>
+  <si>
+    <t>2022.08.17 ~ 2023.02.13</t>
+  </si>
+  <si>
+    <t>황호석</t>
+  </si>
+  <si>
+    <t>2022년 08월 17일</t>
+  </si>
+  <si>
+    <t>2020.05.15 ~ 2023.02.16</t>
+  </si>
+  <si>
+    <t>2020.06.05 ~ 2023.02.16</t>
+  </si>
+  <si>
+    <t>2022년 11월 10일</t>
+  </si>
+  <si>
+    <t>2020.11.09 ~ 2023.02.16</t>
+  </si>
+  <si>
+    <t>2021.03.05 ~ 2023.02.16</t>
+  </si>
+  <si>
+    <t>황현구</t>
+  </si>
+  <si>
+    <t>2022년 10월 04일</t>
+  </si>
+  <si>
+    <t>2022.10.04 ~ 2023.04.03</t>
+  </si>
+  <si>
+    <t>김명수</t>
+  </si>
+  <si>
+    <t>2022년 06월 24일</t>
+  </si>
+  <si>
+    <t>2021.06.28 ~ 2022.12.20</t>
+  </si>
+  <si>
+    <t>아이티엠반도체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>NICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+550.00 (1.90%)
 지난 1개월</t>
-  </si>
-  <si>
-    <t>아모센스</t>
-  </si>
-  <si>
-    <t>김병규</t>
-  </si>
-  <si>
-    <t>+2,400.00 (19.28%)
-지난 1개월</t>
-  </si>
-  <si>
-    <t>솔트룩스</t>
-  </si>
-  <si>
-    <t>이경일</t>
-  </si>
-  <si>
-    <t>+1,450.00 (21.48%)
-지난 1개월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,9 +485,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -674,10 +903,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F29FB7-63D2-4D87-BD6D-DEEB0AC8F2CD}">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE103-808C-4410-8437-44A1E6EC1F9A}">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -693,214 +922,54 @@
     <col min="8" max="8" width="37.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>304100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -934,10 +1003,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D9538-28ED-4E24-80A1-23D3E2AC14F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176F5BE7-CFDE-48E0-8F45-70CE4700F5AC}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -958,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -966,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -974,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -982,211 +1051,964 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>357580</v>
+        <v>84850</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>14750</v>
+      <c r="B5" s="5">
+        <v>29500</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
+      <c r="B6" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4">
+        <v>84850</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>29500</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>420000</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5">
+        <v>203686</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5">
+        <v>58479</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5">
+        <v>582099</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="5">
+        <v>136054</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5">
+        <v>68028</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="5">
+        <v>66226</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>930916</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="5">
+        <v>415585</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>930916</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5">
+        <v>907715</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="5">
+        <v>733000</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>641225</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5">
+        <v>983606</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>641225</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5">
+        <v>163935</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>641225</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5">
+        <v>118033</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>641225</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5">
+        <v>222951</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>630404</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4746</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1">
+        <v>681227</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="5">
+        <v>25526</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1">
+        <v>681227</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="5">
+        <v>25526</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>681227</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="5">
+        <v>11232</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1">
+        <v>681227</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10209</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <v>710327</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5">
+        <v>46224</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1">
+        <v>690520</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4325</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5507185</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="1">
+        <v>24.27</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1194,10 +2016,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3A7C6E-8719-4F64-95F7-73B626D4C920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DF0B37-E845-4051-8303-B2C871BBA7BA}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1218,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1226,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1234,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1242,23 +2064,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>192390</v>
+        <v>180060</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1305,302 +2127,79 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" s="1">
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>750000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8.1199999999999992</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="5">
+        <v>750000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.1199999999999992</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E66DF4-609C-4418-88D5-BF19EC459562}">
-  <dimension ref="A1:L42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="36.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="37.19921875" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="22.09765625" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
-    <col min="8" max="8" width="37.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1640,12 +2239,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1781,15 +2377,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95AB6506-6E0D-4C81-AA13-FC6434A31F73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64154C-D48B-4380-9D66-983123B40E65}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="146baed4-1055-41b0-aa84-cb5f85687f14"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1813,17 +2420,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C64154C-D48B-4380-9D66-983123B40E65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95AB6506-6E0D-4C81-AA13-FC6434A31F73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="146baed4-1055-41b0-aa84-cb5f85687f14"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>